--- a/biology/Écologie/Forêts_de_la_péninsule_ibérique/Forêts_de_la_péninsule_ibérique.xlsx
+++ b/biology/Écologie/Forêts_de_la_péninsule_ibérique/Forêts_de_la_péninsule_ibérique.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>For%C3%AAts_de_la_p%C3%A9ninsule_ib%C3%A9rique</t>
+          <t>Forêts_de_la_péninsule_ibérique</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les forêts de la péninsule ibérique —partagées entre l'Espagne[1], le Portugal[2], Andorre et le Royaume-Uni, à travers la colonie britannique de Gibraltar— se répartissent au sein de deux biomes : les forêts, bois et broussailles méditerranéens et les forêts de feuillus et forêts mixtes tempérées. Caractérisés chacun par une végétation propre, ils possèdent néanmoins également des points communs. La séparation entre ces deux zones se fait progressivement et sans limite précise.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les forêts de la péninsule ibérique —partagées entre l'Espagne, le Portugal, Andorre et le Royaume-Uni, à travers la colonie britannique de Gibraltar— se répartissent au sein de deux biomes : les forêts, bois et broussailles méditerranéens et les forêts de feuillus et forêts mixtes tempérées. Caractérisés chacun par une végétation propre, ils possèdent néanmoins également des points communs. La séparation entre ces deux zones se fait progressivement et sans limite précise.
 </t>
         </is>
       </c>
